--- a/client/src/Excel/Data/Countries/kw.xlsx
+++ b/client/src/Excel/Data/Countries/kw.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C979610-CCB9-4B2C-B416-4AE4064A9842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4E97D-6936-40D8-A1BA-D6D264D91874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>كم_باقي_على_يوم_التحرير_في_الكويت</t>
   </si>
   <si>
-    <t>2024-02-26T00:00:00</t>
-  </si>
-  <si>
     <t>يوم التحرير في الكويت هو أحد المناسبات الوطنية المهمة التي يحتفل بها الكويتيون بفخر في 26 فبراير من كل عام. يأتي هذا اليوم ليعيد إلى الأذهان ذكرى تحرير الكويت من الغزو العراقي في عام 1991، وهي لحظة تاريخية شكلت نقطة تحول كبيرة في تاريخ البلاد. يتساءل الكثيرون "كم باقي على يوم التحرير؟" مع اقتراب العد التنازلي لهذا اليوم الذي يجسد الانتصار والحرية. يبدأ الاحتفال قبل أيام من حلول اليوم الرسمي حيث تزين الشوارع بالأعلام والأضواء الوطنية، ويقوم المواطنون بالتحضير للمهرجانات والأنشطة الثقافية التي تعبر عن حبهم للوطن.</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>كم_باقي_على_عيد_الفطر_في_الكويت</t>
   </si>
   <si>
-    <t>2024-03-31T00:00:00</t>
-  </si>
-  <si>
     <t>عيد الفطر في الكويت هو مناسبة ينتظرها المسلمون في جميع أنحاء البلاد بفارغ الصبر، حيث يمثل نهاية شهر رمضان المبارك وبداية الاحتفالات. يحتفل الكويتيون بهذا العيد في 31 مارس من كل عام، ويتميز بأجواء مليئة بالفرحة والسرور. تترافق المناسبة مع الصلاة في المساجد، وزيارة الأهل والأصدقاء، وتبادل الهدايا. العد التنازلي لهذا اليوم يضيف الحماس، مما يجعل الكثيرين يتساءلون "كم باقي على عيد الفطر؟". يمكنكم من خلال هذه الصفحة معرفة موعد عيد الفطر ومتى يبدأ، حيث تظهر لكم العد التنازلي الذي يساعد في الاستعداد لهذه المناسبة.</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>كم_باقي_على_عيد_الأضحى_في_الكويت</t>
   </si>
   <si>
-    <t>2024-06-06T00:00:00</t>
-  </si>
-  <si>
     <t>عيد الأضحى في الكويت هو مناسبة دينية هامة يحتفل بها المسلمون في 6 يونيو من كل عام، ويُعد وقتًا للتضحية والإحسان والتقرب من الله. العد التنازلي لعيد الأضحى يبدأ بعد انتهاء عيد الفطر، ويجعل الكثيرين يتساءلون "كم باقي على عيد الأضحى؟". يتميز هذا العيد بأداء صلاة العيد في المساجد في الصباح الباكر، يليها ذبح الأضاحي وتوزيع اللحوم على الفقراء والمحتاجين. تعرفوا من خلال هذه الصفحة على موعد عيد الأضحى في الكويت، واعرفوا متى يبدأ العد التنازلي لهذه المناسبة الدينية الهامة.</t>
   </si>
   <si>
@@ -272,9 +263,6 @@
     <t>كم_باقي_على_المولد_النبوي_في_الكويت</t>
   </si>
   <si>
-    <t>2024-09-04T00:00:00</t>
-  </si>
-  <si>
     <t>المولد النبوي في الكويت هو مناسبة دينية يحتفل بها المسلمون في الرابع من سبتمبر من كل عام، وتُعد ذكرى مولد النبي محمد صلى الله عليه وسلم، حيث يتذكر المسلمون في هذا اليوم القيم النبيلة التي جاء بها الدين الإسلامي. العد التنازلي للمولد النبوي يبدأ مبكرًا، ويتساءل الكثيرون "كم باقي على المولد النبوي؟". يعتبر هذا اليوم فرصة للتأمل في سيرته الطيبة والاقتداء بأخلاقه العالية، وتُعقد الاحتفالات والدروس الدينية التي تهدف إلى تعزيز الوعي بالقيم الإسلامية بين الناس. من خلال هذه الصفحة، يمكنكم معرفة موعد المولد النبوي في الكويت ومتابعة العد التنازلي له.</t>
   </si>
   <si>
@@ -302,9 +290,6 @@
     <t>كم_باقي_على_رأس_السنة_الهجرية_في_الكويت</t>
   </si>
   <si>
-    <t>2024-06-26T00:00:00</t>
-  </si>
-  <si>
     <t>رأس السنة الهجرية في الكويت هو يوم مميز يتم الاحتفال به في 26 يونيو، حيث يمثل بداية السنة الهجرية الجديدة وفقًا للتقويم الإسلامي. يتساءل الكثيرون "كم باقي على رأس السنة الهجرية؟"، ومع اقتراب العد التنازلي لهذا اليوم، يزداد الحماس للاحتفال بهذه المناسبة الدينية التي تحمل معنى خاص في حياة المسلمين. في هذا اليوم، يتأمل المسلمون في هجرتهم الروحية ويجددون نواياهم للعام الجديد. يمكنكم من خلال هذه الصفحة معرفة موعد رأس السنة الهجرية في الكويت ومتابعة العد التنازلي لهذا اليوم المميز.</t>
   </si>
   <si>
@@ -668,9 +653,6 @@
     <t>high-school-results-kuwait.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_اعلان_نتائج_الصف_الثاني_عشر_الثانوي_في_الكويت</t>
-  </si>
-  <si>
     <t>2025-06-25T00:00:00</t>
   </si>
   <si>
@@ -737,9 +719,6 @@
     <t>https://q83lm.com/news/%D8%A7%D9%84%D8%AA%D9%82%D9%88%D9%8A%D9%85-%D8%A7%D9%84%D8%AF%D8%B1%D8%A7%D8%B3%D9%8A-%D8%A7%D9%84%D9%83%D9%88%D9%8A%D8%AA-2024/</t>
   </si>
   <si>
-    <t>كم_باقي_على_بدء_دوام_الأطفال_في_رياض_الأطفال_في_الكويت</t>
-  </si>
-  <si>
     <t>2025-09-17T00:00:00</t>
   </si>
   <si>
@@ -942,6 +921,27 @@
   </si>
   <si>
     <t>بدء دوام الأطفال في رياض الأطفال في الكويت 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اعلان_نتائج_الثانوية_العامة_في_الكويت</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بدء_دوام_رياض_الأطفال_في_الكويت</t>
+  </si>
+  <si>
+    <t>2025-06-26T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-06-06T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-09-05T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-26T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-03-30T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1340,17 +1340,17 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.9140625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1412,15 +1412,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2">
         <v>45593</v>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1474,15 +1474,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2">
         <v>45593</v>
@@ -1494,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -1524,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
@@ -1536,12 +1536,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -1556,7 +1556,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>44</v>
@@ -1586,7 +1586,7 @@
         <v>52</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R4" t="b">
         <v>1</v>
@@ -1598,12 +1598,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -1612,43 +1612,43 @@
         <v>45593</v>
       </c>
       <c r="E5" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -1660,57 +1660,57 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2">
         <v>45593</v>
       </c>
       <c r="E6" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -1722,57 +1722,57 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2">
         <v>45593</v>
       </c>
       <c r="E7" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R7" t="b">
         <v>1</v>
@@ -1784,57 +1784,57 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D8" s="2">
         <v>45593</v>
       </c>
       <c r="E8" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -1846,77 +1846,77 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2">
         <v>45593</v>
       </c>
       <c r="E9" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D10" s="2">
         <v>45593</v>
@@ -1925,60 +1925,60 @@
         <v>2025</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R10" t="b">
         <v>1</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2">
         <v>45593</v>
@@ -1987,60 +1987,60 @@
         <v>2025</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D12" s="2">
         <v>45593</v>
@@ -2049,60 +2049,60 @@
         <v>2025</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D13" s="2">
         <v>45593</v>
@@ -2111,60 +2111,60 @@
         <v>2025</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2">
         <v>45593</v>
@@ -2173,60 +2173,60 @@
         <v>2025</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="Q14" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2">
         <v>45593</v>
@@ -2235,60 +2235,60 @@
         <v>2025</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="Q15" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D16" s="2">
         <v>45593</v>
@@ -2297,60 +2297,60 @@
         <v>2025</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D17" s="2">
         <v>45593</v>
@@ -2359,60 +2359,60 @@
         <v>2025</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="Q17" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D18" s="2">
         <v>45593</v>
@@ -2421,60 +2421,60 @@
         <v>2025</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q18" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2">
         <v>45593</v>
@@ -2483,60 +2483,60 @@
         <v>2025</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2">
         <v>45593</v>
@@ -2545,60 +2545,60 @@
         <v>2025</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="Q20" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="T20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2">
         <v>45593</v>
@@ -2607,60 +2607,60 @@
         <v>2025</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="Q21" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="T21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D22" s="2">
         <v>45593</v>
@@ -2669,49 +2669,49 @@
         <v>2025</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="Q22" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="T22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/client/src/Excel/Data/Countries/kw.xlsx
+++ b/client/src/Excel/Data/Countries/kw.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4E97D-6936-40D8-A1BA-D6D264D91874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A4B04-1DC9-4A95-A07C-7BC154BA167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,17 +1340,17 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="24.8984375" customWidth="1"/>
     <col min="3" max="3" width="14.296875" customWidth="1"/>
     <col min="4" max="4" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>248</v>
       </c>
       <c r="D2" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2" s="1">
         <v>2025</v>
@@ -1474,7 +1474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>249</v>
       </c>
       <c r="D3" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3" s="1">
         <v>2025</v>
@@ -1536,7 +1536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4" s="1">
         <v>2025</v>
@@ -1598,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5" s="1">
         <v>2025</v>
@@ -1660,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>250</v>
       </c>
       <c r="D6" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6" s="1">
         <v>2025</v>
@@ -1722,7 +1722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>251</v>
       </c>
       <c r="D7" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7" s="1">
         <v>2025</v>
@@ -1784,7 +1784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>252</v>
       </c>
       <c r="D8" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8" s="1">
         <v>2025</v>
@@ -1846,7 +1846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9" s="1">
         <v>2025</v>
@@ -1908,7 +1908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>259</v>
       </c>
       <c r="D10" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10" s="1">
         <v>2025</v>
@@ -1970,7 +1970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="1">
         <v>2025</v>
@@ -2032,7 +2032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>254</v>
       </c>
       <c r="D12" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="1">
         <v>2025</v>
@@ -2094,7 +2094,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>256</v>
       </c>
       <c r="D13" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="1">
         <v>2025</v>
@@ -2156,7 +2156,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>255</v>
       </c>
       <c r="D14" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="1">
         <v>2025</v>
@@ -2218,7 +2218,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>156</v>
       </c>
       <c r="D15" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="1">
         <v>2025</v>
@@ -2280,7 +2280,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>257</v>
       </c>
       <c r="D16" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E16" s="1">
         <v>2025</v>
@@ -2342,7 +2342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>257</v>
       </c>
       <c r="D17" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E17" s="1">
         <v>2025</v>
@@ -2404,7 +2404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>188</v>
       </c>
       <c r="D18" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E18" s="1">
         <v>2025</v>
@@ -2466,7 +2466,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>199</v>
       </c>
       <c r="D19" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E19" s="1">
         <v>2025</v>
@@ -2528,7 +2528,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>211</v>
       </c>
       <c r="D20" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E20" s="1">
         <v>2025</v>
@@ -2590,7 +2590,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>221</v>
       </c>
       <c r="D21" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E21" s="1">
         <v>2025</v>
@@ -2652,7 +2652,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>258</v>
       </c>
       <c r="D22" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E22" s="1">
         <v>2025</v>
